--- a/TPLABs/TP1/docs/Tabla_de_mediciones.xlsx
+++ b/TPLABs/TP1/docs/Tabla_de_mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/dlugano_frba_utn_edu_ar/Documents/1_UTN/4º/TC2/TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{2BB12DEB-4074-49CB-A4EE-1A49109555D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C9BA5A-0279-4B49-8991-770B9A9C1F84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="109_{D0AF9210-5752-4A34-B007-576A7956658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
